--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1850868.67953445</v>
+        <v>1936882.927736454</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13228832.04867466</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1852030.743161948</v>
+        <v>612367.9462114762</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6420665.113289793</v>
+        <v>6807728.64789267</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>30.4985904467743</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -719,13 +721,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>378.1952994806462</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -826,16 +828,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>121.1254272072398</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>103.8171286208059</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>170.2553066834602</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
@@ -902,19 +904,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>228.2227601214817</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1060,16 +1062,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>49.07880213666135</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>106.4996628416739</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>181.1434624630639</v>
       </c>
       <c r="Y8" t="n">
-        <v>278.1481821493834</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1299,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>127.800783542038</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1306,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>208.5977299819787</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1379,10 +1381,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>38.54815112059598</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>79.47996908724028</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>97.60112162899995</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.61406087241913</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1619,7 +1621,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1670,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1768,16 +1770,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>165.7104322459758</v>
       </c>
       <c r="U16" t="n">
-        <v>161.6737988100375</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>75.30362264056416</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2090,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>75.25534642052892</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2293,19 +2295,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>216.5517457234298</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2713,7 +2715,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2722,16 +2724,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>124.4294523839912</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>135.7468035496446</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2950,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>4.378995526348093</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>148.1612423902099</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3190,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429057</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6737988100367</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3278,7 +3280,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H35" t="n">
         <v>294.8896947407055</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3433,16 +3435,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>66.82300722904078</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>260.444681387164</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3560,7 +3562,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>71.04375511693026</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3679,7 +3681,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3724,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>168.385322870222</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>381.9456632100877</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3749,13 +3751,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3803,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3901,16 +3903,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>129.573091603893</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>19.64740624208219</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -3952,7 +3954,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3977,19 +3979,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>106.338936731647</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4153,7 +4155,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>101.5800624936545</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>170.5586896897042</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>824.2522897001689</v>
+        <v>168.7534004685671</v>
       </c>
       <c r="C2" t="n">
-        <v>801.3919637538731</v>
+        <v>145.8930745222713</v>
       </c>
       <c r="D2" t="n">
-        <v>378.0993429388733</v>
+        <v>126.6408577476756</v>
       </c>
       <c r="E2" t="n">
-        <v>356.162807127135</v>
+        <v>104.7043219359372</v>
       </c>
       <c r="F2" t="n">
-        <v>335.0790293569393</v>
+        <v>73.89766491899348</v>
       </c>
       <c r="G2" t="n">
-        <v>334.7803709867919</v>
+        <v>73.59900654884618</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>73.59900654884618</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="K2" t="n">
-        <v>399.5154512777223</v>
+        <v>517.641059534745</v>
       </c>
       <c r="L2" t="n">
-        <v>856.3013579804531</v>
+        <v>517.641059534745</v>
       </c>
       <c r="M2" t="n">
-        <v>856.3013579804531</v>
+        <v>977.2289161310139</v>
       </c>
       <c r="N2" t="n">
-        <v>856.3013579804531</v>
+        <v>1456.167840373442</v>
       </c>
       <c r="O2" t="n">
-        <v>856.3013579804531</v>
+        <v>1456.167840373442</v>
       </c>
       <c r="P2" t="n">
-        <v>1271.957808655251</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1830.73947048901</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1609.813899533643</v>
       </c>
       <c r="U2" t="n">
-        <v>1587.244713637749</v>
+        <v>1351.458990130055</v>
       </c>
       <c r="V2" t="n">
-        <v>1229.755298763999</v>
+        <v>993.9695752563046</v>
       </c>
       <c r="W2" t="n">
-        <v>1229.755298763999</v>
+        <v>597.5782255566514</v>
       </c>
       <c r="X2" t="n">
-        <v>1222.07570397215</v>
+        <v>589.8986307648028</v>
       </c>
       <c r="Y2" t="n">
-        <v>840.060249951295</v>
+        <v>184.5613607196931</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000781</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273854</v>
+        <v>46.14877825422923</v>
       </c>
       <c r="J3" t="n">
-        <v>316.0561247023296</v>
+        <v>317.8462675338203</v>
       </c>
       <c r="K3" t="n">
-        <v>772.8420314050604</v>
+        <v>317.8462675338203</v>
       </c>
       <c r="L3" t="n">
-        <v>1229.627938107791</v>
+        <v>317.8462675338203</v>
       </c>
       <c r="M3" t="n">
-        <v>1229.627938107791</v>
+        <v>796.785191776248</v>
       </c>
       <c r="N3" t="n">
-        <v>1686.413844810522</v>
+        <v>1275.724116018676</v>
       </c>
       <c r="O3" t="n">
-        <v>1763.580312956634</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="P3" t="n">
-        <v>1763.580312956634</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>827.0154203790037</v>
+        <v>1121.883257816554</v>
       </c>
       <c r="C4" t="n">
-        <v>655.0428572579196</v>
+        <v>949.9106946954702</v>
       </c>
       <c r="D4" t="n">
-        <v>491.7260843846904</v>
+        <v>786.5939218222409</v>
       </c>
       <c r="E4" t="n">
-        <v>325.5178785375439</v>
+        <v>620.3857159750944</v>
       </c>
       <c r="F4" t="n">
-        <v>325.5178785375439</v>
+        <v>448.5239417496549</v>
       </c>
       <c r="G4" t="n">
-        <v>159.260908831776</v>
+        <v>282.266972043887</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>96.1934635164754</v>
       </c>
       <c r="K4" t="n">
-        <v>94.40332068498475</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>449.0926419794055</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>840.2784369496563</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1217.769947825692</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1573.198076505455</v>
+        <v>1517.507422453206</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1808.106634375107</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="S4" t="n">
-        <v>1798.56100972851</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="T4" t="n">
-        <v>1798.56100972851</v>
+        <v>1691.767416841769</v>
       </c>
       <c r="U4" t="n">
-        <v>1518.376561228814</v>
+        <v>1586.901630356107</v>
       </c>
       <c r="V4" t="n">
-        <v>1518.376561228814</v>
+        <v>1586.901630356107</v>
       </c>
       <c r="W4" t="n">
-        <v>1243.524157401327</v>
+        <v>1312.04922652862</v>
       </c>
       <c r="X4" t="n">
-        <v>1243.524157401327</v>
+        <v>1312.04922652862</v>
       </c>
       <c r="Y4" t="n">
-        <v>1017.181389091069</v>
+        <v>1312.04922652862</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>791.8088229574817</v>
+        <v>2043.959734409802</v>
       </c>
       <c r="C5" t="n">
-        <v>768.9484970111859</v>
+        <v>2021.099408463506</v>
       </c>
       <c r="D5" t="n">
-        <v>345.6558761961861</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="E5" t="n">
-        <v>323.7193403844477</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F5" t="n">
-        <v>302.635562614252</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G5" t="n">
-        <v>302.3369042441047</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>399.5154512777223</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L5" t="n">
-        <v>399.5154512777223</v>
+        <v>116.829168004879</v>
       </c>
       <c r="M5" t="n">
-        <v>399.5154512777223</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N5" t="n">
-        <v>856.3013579804531</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O5" t="n">
-        <v>1271.957808655251</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>1271.957808655251</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1624.67405208597</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1624.67405208597</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1624.67405208597</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.67405208597</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1212.954053253717</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>807.6167832086077</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.689621525072</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980092</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809133</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851735</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082694</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082674</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>36.91199246082674</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>493.6978991635576</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L6" t="n">
-        <v>950.4838058662885</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M6" t="n">
-        <v>1306.794406253903</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N6" t="n">
-        <v>1306.794406253903</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O6" t="n">
-        <v>1306.794406253903</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P6" t="n">
-        <v>1306.794406253903</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956634</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>687.6418612791554</v>
+        <v>451.3798346740465</v>
       </c>
       <c r="C7" t="n">
-        <v>687.6418612791554</v>
+        <v>451.3798346740465</v>
       </c>
       <c r="D7" t="n">
-        <v>524.3250884059261</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="E7" t="n">
-        <v>358.1168825587796</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F7" t="n">
-        <v>186.25510833334</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G7" t="n">
-        <v>136.6805607205508</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>77.36724514678696</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>303.8948463526241</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>303.8948463526241</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>1628.425962247645</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1628.425962247645</v>
+        <v>1947.200787969719</v>
       </c>
       <c r="U7" t="n">
-        <v>1628.425962247645</v>
+        <v>1667.016339470023</v>
       </c>
       <c r="V7" t="n">
-        <v>1346.714494855674</v>
+        <v>1385.304872078052</v>
       </c>
       <c r="W7" t="n">
-        <v>1346.714494855674</v>
+        <v>1110.452468250565</v>
       </c>
       <c r="X7" t="n">
-        <v>1104.150598301479</v>
+        <v>867.88857169637</v>
       </c>
       <c r="Y7" t="n">
-        <v>877.8078299912211</v>
+        <v>641.5458033861121</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1342.050951843433</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C8" t="n">
-        <v>915.1502218567327</v>
+        <v>511.1098178163287</v>
       </c>
       <c r="D8" t="n">
-        <v>491.857601041733</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
         <v>65.88066118959054</v>
@@ -4802,25 +4804,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>957.7672188505812</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1100.603903091853</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>1651.269438076291</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4829,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1646.496266633259</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W8" t="n">
-        <v>1646.496266633259</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="X8" t="n">
-        <v>1638.81667184141</v>
+        <v>1359.155778099264</v>
       </c>
       <c r="Y8" t="n">
-        <v>1357.858912094558</v>
+        <v>953.8185080541546</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4883,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>44.49822504924753</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M9" t="n">
-        <v>44.49822504924753</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>595.1637600336857</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>756.3555336978366</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
         <v>1307.021068682275</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1027.91077931376</v>
+        <v>946.7665737820055</v>
       </c>
       <c r="C10" t="n">
-        <v>855.9382161926764</v>
+        <v>774.7940106609215</v>
       </c>
       <c r="D10" t="n">
-        <v>692.6214433194471</v>
+        <v>611.4772377876922</v>
       </c>
       <c r="E10" t="n">
-        <v>526.4132374723006</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F10" t="n">
-        <v>354.551463246861</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4990,22 +4992,22 @@
         <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>2177.872639149549</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U10" t="n">
-        <v>1897.688190649853</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V10" t="n">
-        <v>1897.688190649853</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="W10" t="n">
-        <v>1686.983412890279</v>
+        <v>1379.496439048266</v>
       </c>
       <c r="X10" t="n">
-        <v>1444.419516336084</v>
+        <v>1136.932542494071</v>
       </c>
       <c r="Y10" t="n">
-        <v>1218.076748025826</v>
+        <v>1136.932542494071</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1679.134248012395</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1252.233518025696</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>828.9408972106958</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>402.9639573585533</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>402.9639573585533</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>402.9639573585533</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>105.0955788325882</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>70.19870757605936</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>70.19870757605936</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>785.7070155515585</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1222.439908012335</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.14891426607</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>2091.14891426607</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O11" t="n">
-        <v>2936.293564416882</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P11" t="n">
-        <v>2936.293564416882</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q11" t="n">
-        <v>3392.379043921065</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3509.935378802968</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3470.997852418528</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3250.072281463161</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3250.072281463161</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2892.582866589411</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2496.191516889758</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2084.471518057505</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>1679.134248012395</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>637.3221986075146</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>519.8162951250193</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>415.9763366403044</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>311.2744029132416</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>217.6285725961458</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>123.5748008137498</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>70.19870757605936</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>70.19870757605936</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>341.8961968556504</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>341.8961968556504</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>341.8961968556504</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>1010.177331902835</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N12" t="n">
-        <v>1878.886338156569</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O12" t="n">
-        <v>1878.886338156569</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="P12" t="n">
-        <v>1878.886338156569</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1878.886338156569</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1797.562090717824</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1655.682155015502</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1470.913958935138</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1265.940820074405</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1069.419442907622</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>905.9420966742849</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>766.2492080275773</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1553.601416939504</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C13" t="n">
-        <v>1553.601416939504</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="D13" t="n">
-        <v>1553.601416939504</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="E13" t="n">
-        <v>1553.601416939504</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="F13" t="n">
-        <v>1473.318619881685</v>
+        <v>344.6859734421186</v>
       </c>
       <c r="G13" t="n">
-        <v>1473.318619881685</v>
+        <v>344.6859734421186</v>
       </c>
       <c r="H13" t="n">
-        <v>1329.52235138984</v>
+        <v>200.8897049502729</v>
       </c>
       <c r="I13" t="n">
-        <v>1329.52235138984</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>1387.013679613998</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>1613.541280819835</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>1968.230602114256</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>2359.416397084507</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>2736.907907960542</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>3092.336036640305</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>3382.935248562206</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>3509.935378802968</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>3462.896765490141</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>3292.761718009276</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>3049.422370235176</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>2769.23792173548</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>2487.526454343509</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W13" t="n">
-        <v>2212.674050516022</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X13" t="n">
-        <v>1970.110153961828</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y13" t="n">
-        <v>1743.76738565157</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2081.696762246847</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>2081.696762246847</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1658.404141431847</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.427201579705</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>807.3030197691047</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G14" t="n">
-        <v>402.9639573585533</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>105.0955788325882</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>70.19870757605936</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>432.8021663929549</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>786.2520251598617</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="L14" t="n">
-        <v>1654.961031413596</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M14" t="n">
-        <v>2523.670037667331</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N14" t="n">
-        <v>3392.379043921065</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O14" t="n">
-        <v>3392.379043921065</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P14" t="n">
-        <v>3392.379043921065</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q14" t="n">
-        <v>3392.379043921065</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3509.935378802968</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3509.935378802968</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3289.009807847601</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3289.009807847601</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2931.520392973851</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2535.129043274198</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2535.129043274198</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2129.791773229088</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>637.3221986075146</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>519.8162951250193</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>415.9763366403044</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>311.2744029132416</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>217.6285725961458</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>123.5748008137498</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>70.19870757605936</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>70.19870757605936</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>70.19870757605936</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>70.19870757605936</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L15" t="n">
-        <v>70.19870757605936</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M15" t="n">
-        <v>70.19870757605936</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N15" t="n">
-        <v>211.9603047796334</v>
+        <v>1782.102586447038</v>
       </c>
       <c r="O15" t="n">
-        <v>1080.669311033368</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1796.867028071866</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1796.867028071866</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1797.562090717824</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1655.682155015502</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1470.913958935138</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1265.940820074405</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1069.419442907622</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>905.9420966742849</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>766.2492080275773</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1153.379830100296</v>
+        <v>684.0483191256287</v>
       </c>
       <c r="C16" t="n">
-        <v>981.4072669792122</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="D16" t="n">
-        <v>818.0904941059829</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="E16" t="n">
-        <v>651.8822882588364</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F16" t="n">
-        <v>480.0205140333969</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G16" t="n">
-        <v>313.763544327629</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>169.9672758357834</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>70.19870757605936</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>127.6900358002174</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>354.2176370060546</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>708.9069583004754</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1100.092753270726</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1477.584264146762</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1833.012392826525</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2123.611604748426</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2250.611734989188</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2250.611734989188</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2250.611734989188</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>2250.611734989188</v>
+        <v>1898.15780502933</v>
       </c>
       <c r="U16" t="n">
-        <v>2087.304867504301</v>
+        <v>1617.973356529634</v>
       </c>
       <c r="V16" t="n">
-        <v>2087.304867504301</v>
+        <v>1617.973356529634</v>
       </c>
       <c r="W16" t="n">
-        <v>1812.452463676815</v>
+        <v>1343.120952702147</v>
       </c>
       <c r="X16" t="n">
-        <v>1569.88856712262</v>
+        <v>1100.557056147952</v>
       </c>
       <c r="Y16" t="n">
-        <v>1343.545798812362</v>
+        <v>874.2142878376944</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5522,19 +5524,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N17" t="n">
-        <v>3813.905540636432</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O17" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5549,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5598,16 +5600,16 @@
         <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>692.7876399741681</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M18" t="n">
-        <v>692.7876399741681</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N18" t="n">
-        <v>692.7876399741681</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O18" t="n">
-        <v>1582.26891798564</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>178.3669786993277</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>2119.408873334071</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988743</v>
       </c>
       <c r="G20" t="n">
         <v>435.0679631883225</v>
@@ -5750,25 +5752,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>292.0244587153436</v>
       </c>
       <c r="K20" t="n">
-        <v>533.9931985757493</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L20" t="n">
-        <v>1463.618246195026</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M20" t="n">
-        <v>2467.904347614084</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5795,7 +5797,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M21" t="n">
-        <v>939.1015214887346</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>440.5322462326804</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1869.241345563992</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1869.241345563992</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1594.388941736505</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1594.388941736505</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5990,22 +5992,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6069,25 +6071,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6224,13 +6226,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M26" t="n">
         <v>2011.818868109901</v>
@@ -6312,16 +6314,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6397,37 +6399,37 @@
         <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.11639865629</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578191</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818953</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.677127506126</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025261</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251161</v>
       </c>
       <c r="U28" t="n">
-        <v>2002.531292319261</v>
+        <v>1542.018283751466</v>
       </c>
       <c r="V28" t="n">
-        <v>1876.844976779876</v>
+        <v>1260.306816359494</v>
       </c>
       <c r="W28" t="n">
-        <v>1601.992572952389</v>
+        <v>985.4544125320074</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>848.3364291485279</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>621.99366083827</v>
       </c>
     </row>
     <row r="29">
@@ -6461,10 +6463,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>292.0244587153436</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1007.532766690843</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
         <v>1007.532766690843</v>
@@ -6546,22 +6548,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>939.1015214887346</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>939.1015214887346</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O30" t="n">
-        <v>1828.582799500206</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>516.5477476675582</v>
+        <v>609.4538236255814</v>
       </c>
       <c r="C31" t="n">
-        <v>516.5477476675582</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D31" t="n">
-        <v>516.5477476675582</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>516.5477476675582</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6661,10 +6663,10 @@
         <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>835.7965919358394</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>609.4538236255814</v>
       </c>
     </row>
     <row r="32">
@@ -6701,22 +6703,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M32" t="n">
-        <v>2110.0395278175</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N32" t="n">
-        <v>3086.290586304201</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6780,25 +6782,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>692.7876399741681</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M33" t="n">
-        <v>1748.774177950213</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.774177950213</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>1748.774177950213</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>1748.774177950213</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4017.903765402536</v>
+        <v>326.3817789554889</v>
       </c>
       <c r="C34" t="n">
-        <v>3845.931202281452</v>
+        <v>154.4092158344049</v>
       </c>
       <c r="D34" t="n">
-        <v>3682.614429408222</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E34" t="n">
-        <v>3516.406223561076</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818953</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.677127506126</v>
       </c>
       <c r="S34" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025261</v>
       </c>
       <c r="T34" t="n">
-        <v>5115.135670291427</v>
+        <v>1822.202732251161</v>
       </c>
       <c r="U34" t="n">
-        <v>5115.135670291427</v>
+        <v>1542.018283751466</v>
       </c>
       <c r="V34" t="n">
-        <v>4951.828802806542</v>
+        <v>1260.306816359494</v>
       </c>
       <c r="W34" t="n">
-        <v>4676.976398979054</v>
+        <v>985.4544125320074</v>
       </c>
       <c r="X34" t="n">
-        <v>4434.41250242486</v>
+        <v>742.8905159778125</v>
       </c>
       <c r="Y34" t="n">
-        <v>4208.069734114601</v>
+        <v>516.5477476675545</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
         <v>4997.579335409525</v>
@@ -6971,16 +6973,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="36">
@@ -7020,19 +7022,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>939.1015214887346</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1085.715267670341</v>
+        <v>742.8905159778152</v>
       </c>
       <c r="C37" t="n">
-        <v>913.7427045492574</v>
+        <v>742.8905159778152</v>
       </c>
       <c r="D37" t="n">
-        <v>750.4259316760281</v>
+        <v>579.5737431045859</v>
       </c>
       <c r="E37" t="n">
-        <v>584.2177258288816</v>
+        <v>413.3655372574394</v>
       </c>
       <c r="F37" t="n">
-        <v>412.355951603442</v>
+        <v>413.3655372574394</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7105,40 +7107,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.68826997653</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656293</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578194</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.677127506129</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025264</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251164</v>
       </c>
       <c r="U37" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751468</v>
       </c>
       <c r="V37" t="n">
-        <v>2019.640305074347</v>
+        <v>1260.306816359497</v>
       </c>
       <c r="W37" t="n">
-        <v>1744.78790124686</v>
+        <v>985.4544125320101</v>
       </c>
       <c r="X37" t="n">
-        <v>1502.224004692665</v>
+        <v>742.8905159778152</v>
       </c>
       <c r="Y37" t="n">
-        <v>1275.881236382407</v>
+        <v>742.8905159778152</v>
       </c>
     </row>
     <row r="38">
@@ -7148,61 +7150,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988743</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883229</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623577</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.8188681099</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7214,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C39" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D39" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E39" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F39" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677404</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J39" t="n">
-        <v>381.4468456473314</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K39" t="n">
-        <v>381.4468456473314</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L39" t="n">
-        <v>855.0038060102931</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="M39" t="n">
-        <v>1910.990343986338</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>4143.635082195253</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="R39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S39" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T39" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U39" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V39" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W39" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X39" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y39" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1085.715267670341</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C40" t="n">
-        <v>913.7427045492574</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D40" t="n">
-        <v>750.4259316760281</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E40" t="n">
-        <v>584.2177258288816</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F40" t="n">
-        <v>412.355951603442</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976742</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I40" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="U40" t="n">
-        <v>2002.531292319261</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.81982492729</v>
+        <v>4833.424202899456</v>
       </c>
       <c r="W40" t="n">
-        <v>1445.967421099803</v>
+        <v>4558.571799071969</v>
       </c>
       <c r="X40" t="n">
-        <v>1445.967421099803</v>
+        <v>4316.007902517774</v>
       </c>
       <c r="Y40" t="n">
-        <v>1275.881236382407</v>
+        <v>4089.665134207516</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1381.26586948643</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>954.3651394997303</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>531.0725186847305</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>105.0955788325881</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>105.0955788325881</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>105.0955788325881</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>105.0955788325881</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>432.8021663929549</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>1148.310474368454</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1148.310474368454</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>1148.310474368454</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>2017.019480622188</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>2862.164130773001</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P41" t="n">
-        <v>3509.935378802967</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q41" t="n">
-        <v>3509.935378802967</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3509.935378802967</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3405.568084676107</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3184.642513720741</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>2926.287604317153</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2568.798189443402</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2172.40683974375</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>2172.40683974375</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>1767.06956969864</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>637.3221986075146</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>519.8162951250193</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>415.9763366403044</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>311.2744029132416</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>217.6285725961458</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>123.5748008137498</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>70.19870757605935</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>70.19870757605935</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K42" t="n">
-        <v>70.19870757605935</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L42" t="n">
-        <v>293.9796148643367</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M42" t="n">
-        <v>1162.688621118071</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N42" t="n">
-        <v>1162.688621118071</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O42" t="n">
-        <v>1162.688621118071</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P42" t="n">
-        <v>1878.886338156569</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1878.886338156569</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1797.562090717824</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1655.682155015502</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1470.913958935138</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1265.940820074405</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1069.419442907622</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>905.9420966742849</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>766.2492080275773</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>849.3146254529063</v>
+        <v>601.2341827829796</v>
       </c>
       <c r="C43" t="n">
-        <v>677.3420623318223</v>
+        <v>429.2616196618956</v>
       </c>
       <c r="D43" t="n">
-        <v>546.4601516208193</v>
+        <v>265.9448467886663</v>
       </c>
       <c r="E43" t="n">
-        <v>380.2519457736728</v>
+        <v>265.9448467886663</v>
       </c>
       <c r="F43" t="n">
-        <v>380.2519457736728</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G43" t="n">
-        <v>213.994976067905</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H43" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>127.6900358002174</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>354.2176370060546</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>708.9069583004754</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1100.092753270726</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1477.584264146762</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1833.012392826525</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2123.611604748426</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2250.611734989188</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2203.573121676361</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2033.438074195496</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>1790.098726421396</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>1790.098726421396</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V43" t="n">
-        <v>1508.387259029425</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W43" t="n">
-        <v>1508.387259029425</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X43" t="n">
-        <v>1265.82336247523</v>
+        <v>1017.742919805303</v>
       </c>
       <c r="Y43" t="n">
-        <v>1039.480594164972</v>
+        <v>791.4001514950452</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>935.5012065748572</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>935.5012065748572</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
-        <v>828.0881391691531</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>828.0881391691531</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>402.9639573585533</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>402.9639573585533</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>105.0955788325881</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>70.19870757605935</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>785.7070155515585</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L44" t="n">
-        <v>1654.416021805293</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M44" t="n">
-        <v>1654.416021805293</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N44" t="n">
-        <v>2523.125028059027</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O44" t="n">
-        <v>2801.656099645039</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P44" t="n">
-        <v>3509.935378802967</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q44" t="n">
-        <v>3509.935378802967</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>3509.935378802967</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3405.568084676107</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3184.642513720741</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>2926.287604317153</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2568.798189443402</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>2172.40683974375</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>1760.686840911497</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>1355.349570866387</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>637.3221986075146</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C45" t="n">
-        <v>519.8162951250193</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D45" t="n">
-        <v>415.9763366403044</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E45" t="n">
-        <v>311.2744029132416</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F45" t="n">
-        <v>217.6285725961458</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G45" t="n">
-        <v>123.5748008137498</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H45" t="n">
-        <v>70.19870757605935</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I45" t="n">
-        <v>70.19870757605935</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J45" t="n">
-        <v>70.19870757605935</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="K45" t="n">
-        <v>70.19870757605935</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="L45" t="n">
-        <v>906.9975156589655</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.721551209087</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="N45" t="n">
-        <v>1332.721551209087</v>
+        <v>4667.46047546338</v>
       </c>
       <c r="O45" t="n">
-        <v>1332.721551209087</v>
+        <v>4667.46047546338</v>
       </c>
       <c r="P45" t="n">
-        <v>1332.721551209087</v>
+        <v>4667.46047546338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1796.867028071866</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="R45" t="n">
-        <v>1878.886338156569</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S45" t="n">
-        <v>1797.562090717824</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T45" t="n">
-        <v>1655.682155015502</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U45" t="n">
-        <v>1470.913958935138</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V45" t="n">
-        <v>1265.940820074405</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W45" t="n">
-        <v>1069.419442907622</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X45" t="n">
-        <v>905.9420966742849</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y45" t="n">
-        <v>766.2492080275773</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2412.703473914076</v>
+        <v>3918.135197142812</v>
       </c>
       <c r="C46" t="n">
-        <v>2240.730910792992</v>
+        <v>3746.162634021728</v>
       </c>
       <c r="D46" t="n">
-        <v>2077.414137919763</v>
+        <v>3582.845861148498</v>
       </c>
       <c r="E46" t="n">
-        <v>1911.205932072616</v>
+        <v>3416.637655301352</v>
       </c>
       <c r="F46" t="n">
-        <v>1739.344157847177</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="G46" t="n">
-        <v>1573.087188141409</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H46" t="n">
-        <v>1429.290919649563</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I46" t="n">
-        <v>1329.522351389839</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J46" t="n">
-        <v>1387.013679613997</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K46" t="n">
-        <v>1613.541280819834</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L46" t="n">
-        <v>1968.230602114255</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M46" t="n">
-        <v>2359.416397084506</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N46" t="n">
-        <v>2736.907907960541</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O46" t="n">
-        <v>3092.336036640304</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P46" t="n">
-        <v>3382.935248562205</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q46" t="n">
-        <v>3509.935378802967</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R46" t="n">
-        <v>3509.935378802967</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S46" t="n">
-        <v>3509.935378802967</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T46" t="n">
-        <v>3509.935378802967</v>
+        <v>4871.796322517327</v>
       </c>
       <c r="U46" t="n">
-        <v>3229.750930303271</v>
+        <v>4591.611874017632</v>
       </c>
       <c r="V46" t="n">
-        <v>2948.0394629113</v>
+        <v>4591.611874017632</v>
       </c>
       <c r="W46" t="n">
-        <v>2845.433339180336</v>
+        <v>4316.759470190144</v>
       </c>
       <c r="X46" t="n">
-        <v>2602.869442626141</v>
+        <v>4144.477965453069</v>
       </c>
       <c r="Y46" t="n">
-        <v>2602.869442626141</v>
+        <v>3918.135197142812</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487767</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>501.6614210774812</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.0563139884133</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>457.4303624918456</v>
+        <v>521.3520529641986</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,28 +8060,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>506.8734716662953</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>505.119719367509</v>
       </c>
       <c r="O3" t="n">
-        <v>101.1178171425367</v>
+        <v>131.7781250670426</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,7 +8139,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8149,13 +8151,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>94.64032950871376</v>
       </c>
       <c r="P4" t="n">
-        <v>297.533877966958</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>457.2459600376384</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>483.9149924745637</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>383.0064778735544</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>259.4889279983319</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,13 +8373,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>61.50064758588189</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>181.5591018660332</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>452.5855512828693</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8529,25 +8531,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>467.1209648647325</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>185.9918631203545</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
@@ -8687,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>479.4563782515895</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>914.9151076001738</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
         <v>37.27962283444602</v>
@@ -8705,10 +8707,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>369.2860653765454</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8766,7 +8768,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
@@ -8775,22 +8777,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>698.1282300549382</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>898.8268729142836</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>230.3933721714771</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,28 +8929,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>392.7846601553213</v>
+        <v>702.6160445827093</v>
       </c>
       <c r="L14" t="n">
-        <v>915.7958871333649</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>914.9151076001738</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>914.7634675351881</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9008,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9015,19 +9017,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>164.5365607424043</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>900.6557344229642</v>
+        <v>153.3615438023236</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,10 +9172,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>653.6520906270367</v>
       </c>
       <c r="N17" t="n">
-        <v>743.9259979858341</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9185,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,7 +9248,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
@@ -9255,10 +9257,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>353.8126856499787</v>
+        <v>407.0273017394389</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>221.0580860608543</v>
       </c>
       <c r="K20" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9419,7 +9421,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9483,16 +9485,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>104.5829721389275</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>693.1063741240905</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9501,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,10 +9640,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9653,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9717,28 +9719,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>574.2427960500296</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M26" t="n">
-        <v>304.4845953330648</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9960,19 +9962,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>656.0343783945846</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>221.0580860608543</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>229.9501690078907</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10194,25 +10196,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>229.9655591801901</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>105.0107851302144</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,25 +10351,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>791.8596365713911</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>105.9095497086638</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10428,16 +10430,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10446,10 +10448,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.7539634924349</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10601,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10668,13 +10670,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>1003.048909524252</v>
+        <v>312.8133471445368</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10683,7 +10685,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10829,10 +10831,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>304.4845953330639</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10896,25 +10898,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>500.8554507172212</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>21.73518417458029</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -10923,7 +10925,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,25 +11065,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>914.7634675351878</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P41" t="n">
-        <v>691.8897537596924</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11142,10 +11144,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>248.556407207439</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>900.5806252130698</v>
+        <v>445.5991972680949</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11154,13 +11156,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>915.7958871333647</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>914.7634675351878</v>
+        <v>751.2280472965118</v>
       </c>
       <c r="O44" t="n">
-        <v>318.7354761095714</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11373,19 +11375,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>453.1210588457836</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -11394,7 +11396,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>392.0964168176092</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.77547006499501</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -23425,7 +23427,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>90.6631873959449</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>1.169760948126836</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>368.0358197761956</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>75.19552205038323</v>
       </c>
       <c r="U16" t="n">
-        <v>115.7088052046612</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>94.83953384262102</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>113.0089626044161</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.5275949037256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>154.4649003340602</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>104.3914540390083</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>165.7641609568371</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>91.97701519844301</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>110.0981677402064</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080147</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.7713927796694</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>18.44967133088738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>117.2205539080147</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>55.69401775693333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>33.704217438527</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25637,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>32.11051354060402</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>150.495750241103</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25865,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>312.7207578752027</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,22 +26076,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>170.5238172955576</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>69.57956789894868</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>577010.3155192023</v>
+        <v>578157.7247451845</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>577010.3155192023</v>
+        <v>581872.784093932</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>460979.4690101971</v>
+        <v>591458.689892059</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>460979.4690101971</v>
+        <v>591458.689892059</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>591458.6898920591</v>
+        <v>591458.689892059</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>591458.6898920591</v>
+        <v>591458.689892059</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>591458.6898920591</v>
+        <v>591458.689892059</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>460979.4690101969</v>
+        <v>591458.689892059</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>460979.4690101969</v>
+        <v>591458.689892059</v>
       </c>
     </row>
   </sheetData>
@@ -26317,19 +26319,19 @@
         <v>480515.2011092093</v>
       </c>
       <c r="D2" t="n">
-        <v>480515.2011092093</v>
+        <v>480515.2011092094</v>
       </c>
       <c r="E2" t="n">
-        <v>361402.90183998</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="F2" t="n">
-        <v>361402.9018399799</v>
+        <v>463675.0825883941</v>
       </c>
       <c r="G2" t="n">
-        <v>463675.0825883939</v>
+        <v>463675.082588394</v>
       </c>
       <c r="H2" t="n">
-        <v>463675.0825883939</v>
+        <v>463675.082588394</v>
       </c>
       <c r="I2" t="n">
         <v>463675.0825883938</v>
@@ -26338,22 +26340,22 @@
         <v>463675.0825883938</v>
       </c>
       <c r="K2" t="n">
-        <v>463675.082588394</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="L2" t="n">
-        <v>463675.0825883937</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="M2" t="n">
-        <v>463675.0825883939</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="N2" t="n">
         <v>463675.0825883939</v>
       </c>
       <c r="O2" t="n">
-        <v>361402.9018399799</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="P2" t="n">
-        <v>361402.9018399799</v>
+        <v>463675.0825883938</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.696069591</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361245</v>
       </c>
       <c r="D3" t="n">
-        <v>29456.39286176439</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95919.98339863028</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>109990.3304731536</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802886</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701997</v>
       </c>
       <c r="L3" t="n">
-        <v>24000.08990045009</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80058.2880951452</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199461.1094204222</v>
+        <v>195487.3209125819</v>
       </c>
       <c r="C4" t="n">
-        <v>199461.1094204222</v>
+        <v>182621.0655158991</v>
       </c>
       <c r="D4" t="n">
-        <v>182621.065515899</v>
+        <v>182621.0655158991</v>
       </c>
       <c r="E4" t="n">
-        <v>56380.49013995299</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="F4" t="n">
-        <v>56380.49013995299</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="G4" t="n">
+        <v>72380.62724986373</v>
+      </c>
+      <c r="H4" t="n">
         <v>72380.62724986371</v>
-      </c>
-      <c r="H4" t="n">
-        <v>72380.62724986368</v>
       </c>
       <c r="I4" t="n">
         <v>72380.62724986373</v>
       </c>
       <c r="J4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986367</v>
       </c>
       <c r="K4" t="n">
         <v>72380.62724986373</v>
       </c>
       <c r="L4" t="n">
+        <v>72380.62724986367</v>
+      </c>
+      <c r="M4" t="n">
+        <v>72380.62724986367</v>
+      </c>
+      <c r="N4" t="n">
+        <v>72380.62724986368</v>
+      </c>
+      <c r="O4" t="n">
         <v>72380.62724986373</v>
       </c>
-      <c r="M4" t="n">
-        <v>72380.62724986371</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>72380.6272498637</v>
-      </c>
-      <c r="O4" t="n">
-        <v>56380.49013995298</v>
-      </c>
-      <c r="P4" t="n">
-        <v>56380.49013995298</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216121</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>53351.01775780511</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>53351.01775780511</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26503,13 +26505,13 @@
         <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>53351.0177578051</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>53351.0177578051</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64747.65680043833</v>
+        <v>59861.96130487524</v>
       </c>
       <c r="C6" t="n">
-        <v>219373.3774185588</v>
+        <v>207041.0508822697</v>
       </c>
       <c r="D6" t="n">
-        <v>200991.4916941178</v>
+        <v>230447.8845558822</v>
       </c>
       <c r="E6" t="n">
-        <v>155751.4105435917</v>
+        <v>97805.03659345995</v>
       </c>
       <c r="F6" t="n">
-        <v>251671.3939422218</v>
+        <v>313544.3931501007</v>
       </c>
       <c r="G6" t="n">
-        <v>203554.0626769469</v>
+        <v>313544.3931501006</v>
       </c>
       <c r="H6" t="n">
-        <v>313544.3931501005</v>
+        <v>313544.3931501006</v>
       </c>
       <c r="I6" t="n">
         <v>313544.3931501004</v>
       </c>
       <c r="J6" t="n">
-        <v>192821.8762073435</v>
+        <v>186967.1245698118</v>
       </c>
       <c r="K6" t="n">
+        <v>294897.7927930804</v>
+      </c>
+      <c r="L6" t="n">
         <v>313544.3931501005</v>
       </c>
-      <c r="L6" t="n">
-        <v>289544.3032496502</v>
-      </c>
       <c r="M6" t="n">
-        <v>233486.1050549553</v>
+        <v>133480.5216949328</v>
       </c>
       <c r="N6" t="n">
         <v>313544.3931501005</v>
       </c>
       <c r="O6" t="n">
-        <v>251671.3939422219</v>
+        <v>313544.3931501005</v>
       </c>
       <c r="P6" t="n">
-        <v>251671.3939422218</v>
+        <v>313544.3931501004</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539673</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>877.483844700742</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>877.483844700742</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>877.4838447007418</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>877.4838447007418</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539673</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162682</v>
       </c>
       <c r="D4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>321.2560315851479</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>401.3000728721148</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539673</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162682</v>
       </c>
       <c r="L4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>321.2560315851479</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539673</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162682</v>
       </c>
       <c r="L4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>321.2560315851479</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>401.3000728721148</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>390.3743495457194</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.08859786401234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>21.23287859968737</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>173.5654753938929</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -27603,7 +27605,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>245.3945739651546</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27622,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>66.66693461922387</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -27679,10 +27681,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27780,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>115.5155978720488</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>134.4062914546851</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>226.4593363808663</v>
       </c>
       <c r="Y8" t="n">
-        <v>123.1357151952752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>36.74534024663697</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>63.50614980723344</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -28810,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-5.578167937219307e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.7766911539673</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>464.2301581780494</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.7766911539673</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>419.8550006816143</v>
+        <v>483.7766911539673</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,28 +34780,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>483.7766911539673</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539673</v>
       </c>
       <c r="O3" t="n">
-        <v>77.9459274203145</v>
+        <v>108.6062353448204</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34869,13 +34871,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>72.14114201028931</v>
       </c>
       <c r="P4" t="n">
-        <v>275.1530773089715</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>419.8550006816143</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>359.9096973612264</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>238.1458997847902</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>40.86389160198002</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>415.010189472638</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>444.605878150503</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O9" t="n">
-        <v>162.8199733981322</v>
-      </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
@@ -35407,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>441.1443358189665</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>877.483844700742</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35425,10 +35427,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>333.1613907719473</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>675.0314495426102</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>877.483844700742</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>208.6225309666485</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>357.0200593605119</v>
+        <v>666.8514437878999</v>
       </c>
       <c r="L14" t="n">
-        <v>877.483844700742</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>877.483844700742</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>877.483844700742</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>143.1935325288626</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>877.483844700742</v>
+        <v>130.1896540801013</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35890,10 +35892,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>616.220827727605</v>
       </c>
       <c r="N17" t="n">
-        <v>706.646375151388</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35905,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,7 +35968,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,10 +35977,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>332.04184444515</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>191.6381265752677</v>
       </c>
       <c r="K20" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36139,7 +36141,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>83.23994392538586</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>669.9344844018683</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,10 +36360,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36373,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36437,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M26" t="n">
-        <v>267.053332433633</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36680,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36765,7 +36767,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O28" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977367</v>
       </c>
       <c r="P28" t="n">
         <v>293.5345574968697</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>191.6381265752677</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>191.6381265752678</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36914,25 +36916,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>208.6225309666485</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>83.23994392538575</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,25 +37071,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>754.4686772153671</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>69.78487510406572</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.00692520345643</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37247,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q34" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391497</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37321,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37388,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>981.7058813107108</v>
+        <v>291.4703189309951</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,7 +37475,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N37" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404393</v>
       </c>
       <c r="O37" t="n">
         <v>359.0183117977405</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37549,10 +37551,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>267.0533324336321</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37616,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>478.3403640029916</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>0.3921559610386215</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>877.4838447007418</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P41" t="n">
-        <v>654.3143919494611</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,10 +37864,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>226.0413204932094</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>877.4838447007418</v>
+        <v>422.5024167557669</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37874,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>877.4838447007418</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>877.4838447007418</v>
+        <v>713.9484244620658</v>
       </c>
       <c r="O44" t="n">
-        <v>281.3445167535473</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>430.0242783334556</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>369.3493785286307</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1936882.927736454</v>
+        <v>1936186.266531363</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114762</v>
+        <v>612367.9462114753</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>30.4985904467743</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>209.2318251717257</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -828,13 +828,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>16.82390213657726</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>103.8171286208059</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.2553066834602</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>120.9974106182814</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1056,13 +1056,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>106.4996628416739</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1116,10 +1116,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>138.8269632718612</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>333.3407674996176</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>181.1434624630639</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1299,7 +1299,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>127.800783542038</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1308,7 +1308,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1341,25 +1341,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>218.0080577057878</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864435</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>75.25534642052904</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>97.60112162899995</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868319</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1621,7 +1621,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T16" t="n">
-        <v>165.7104322459758</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.54790254396664</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855909</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458131</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -1906,7 +1906,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026545</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>75.30362264056416</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2.847993492508924</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.25534642052892</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2481,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2715,16 +2715,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>135.7468035496446</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>209.2324091128485</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>148.1612423902099</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429057</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3280,7 +3280,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
         <v>294.8896947407055</v>
@@ -3325,7 +3325,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250155</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>66.82300722904078</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>25.35411994328483</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>240.9059542963547</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3486,13 +3486,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396487</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>71.04375511693026</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399264</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3742,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3751,7 +3751,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -3903,19 +3903,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>19.64740624208219</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3960,7 +3960,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4194,13 +4194,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>170.5586896897042</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>168.7534004685671</v>
+        <v>1336.254862086502</v>
       </c>
       <c r="C2" t="n">
-        <v>145.8930745222713</v>
+        <v>1313.394536140207</v>
       </c>
       <c r="D2" t="n">
-        <v>126.6408577476756</v>
+        <v>890.1019153252068</v>
       </c>
       <c r="E2" t="n">
-        <v>104.7043219359372</v>
+        <v>464.1249754730645</v>
       </c>
       <c r="F2" t="n">
-        <v>73.89766491899348</v>
+        <v>443.0411977028688</v>
       </c>
       <c r="G2" t="n">
-        <v>73.59900654884618</v>
+        <v>38.70213529231737</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884618</v>
+        <v>38.70213529231737</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231739</v>
+        <v>38.70213529231737</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231739</v>
+        <v>401.3055941092128</v>
       </c>
       <c r="K2" t="n">
-        <v>517.641059534745</v>
+        <v>880.2445183516402</v>
       </c>
       <c r="L2" t="n">
-        <v>517.641059534745</v>
+        <v>880.2445183516402</v>
       </c>
       <c r="M2" t="n">
-        <v>977.2289161310139</v>
+        <v>882.5260259873553</v>
       </c>
       <c r="N2" t="n">
-        <v>1456.167840373442</v>
+        <v>882.5260259873553</v>
       </c>
       <c r="O2" t="n">
-        <v>1456.167840373442</v>
+        <v>882.5260259873553</v>
       </c>
       <c r="P2" t="n">
-        <v>1935.106764615869</v>
+        <v>1361.464950229783</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615869</v>
+        <v>1817.550429733966</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615869</v>
+        <v>1935.106764615868</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.73947048901</v>
+        <v>1830.739470489009</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533643</v>
+        <v>1830.739470489009</v>
       </c>
       <c r="U2" t="n">
-        <v>1351.458990130055</v>
+        <v>1572.384561085421</v>
       </c>
       <c r="V2" t="n">
-        <v>993.9695752563046</v>
+        <v>1572.384561085421</v>
       </c>
       <c r="W2" t="n">
-        <v>597.5782255566514</v>
+        <v>1361.039283134183</v>
       </c>
       <c r="X2" t="n">
-        <v>589.8986307648028</v>
+        <v>1353.359688342334</v>
       </c>
       <c r="Y2" t="n">
-        <v>184.5613607196931</v>
+        <v>1352.062822337628</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.8256263237727</v>
+        <v>605.8256263237726</v>
       </c>
       <c r="C3" t="n">
-        <v>488.3197228412774</v>
+        <v>488.3197228412773</v>
       </c>
       <c r="D3" t="n">
         <v>384.4797643565624</v>
@@ -4400,34 +4400,34 @@
         <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000781</v>
+        <v>92.07822853000778</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231739</v>
+        <v>38.70213529231737</v>
       </c>
       <c r="I3" t="n">
-        <v>46.14877825422923</v>
+        <v>38.70213529231737</v>
       </c>
       <c r="J3" t="n">
-        <v>317.8462675338203</v>
+        <v>38.70213529231737</v>
       </c>
       <c r="K3" t="n">
-        <v>317.8462675338203</v>
+        <v>410.5729931455449</v>
       </c>
       <c r="L3" t="n">
-        <v>317.8462675338203</v>
+        <v>889.5119173879723</v>
       </c>
       <c r="M3" t="n">
-        <v>796.785191776248</v>
+        <v>1368.4508416304</v>
       </c>
       <c r="N3" t="n">
-        <v>1275.724116018676</v>
+        <v>1368.4508416304</v>
       </c>
       <c r="O3" t="n">
-        <v>1383.244289010048</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="P3" t="n">
-        <v>1383.244289010048</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
         <v>1847.389765872827</v>
@@ -4451,10 +4451,10 @@
         <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>874.445524390543</v>
+        <v>874.4455243905429</v>
       </c>
       <c r="Y3" t="n">
-        <v>734.7526357438354</v>
+        <v>734.7526357438353</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1121.883257816554</v>
+        <v>656.9620859354984</v>
       </c>
       <c r="C4" t="n">
-        <v>949.9106946954702</v>
+        <v>484.9895228144144</v>
       </c>
       <c r="D4" t="n">
-        <v>786.5939218222409</v>
+        <v>321.6727499411851</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3857159750944</v>
+        <v>155.4645440940386</v>
       </c>
       <c r="F4" t="n">
-        <v>448.5239417496549</v>
+        <v>155.4645440940386</v>
       </c>
       <c r="G4" t="n">
-        <v>282.266972043887</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="H4" t="n">
         <v>138.4707035520414</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231739</v>
+        <v>38.70213529231737</v>
       </c>
       <c r="J4" t="n">
-        <v>96.1934635164754</v>
+        <v>38.70213529231737</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223126</v>
+        <v>165.7127968734967</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167334</v>
+        <v>520.4021181679175</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.596180986984</v>
+        <v>911.5879131381682</v>
       </c>
       <c r="N4" t="n">
-        <v>1446.08769186302</v>
+        <v>1289.079424014204</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453206</v>
+        <v>1644.507552693967</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375107</v>
+        <v>1935.106764615868</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615869</v>
+        <v>1935.106764615868</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615869</v>
+        <v>1888.068151303042</v>
       </c>
       <c r="S4" t="n">
-        <v>1935.106764615869</v>
+        <v>1888.068151303042</v>
       </c>
       <c r="T4" t="n">
-        <v>1691.767416841769</v>
+        <v>1644.728803528942</v>
       </c>
       <c r="U4" t="n">
-        <v>1586.901630356107</v>
+        <v>1364.544355029246</v>
       </c>
       <c r="V4" t="n">
-        <v>1586.901630356107</v>
+        <v>1364.544355029246</v>
       </c>
       <c r="W4" t="n">
-        <v>1312.04922652862</v>
+        <v>1089.691951201759</v>
       </c>
       <c r="X4" t="n">
-        <v>1312.04922652862</v>
+        <v>847.128054647564</v>
       </c>
       <c r="Y4" t="n">
-        <v>1312.04922652862</v>
+        <v>847.128054647564</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2043.959734409802</v>
+        <v>1075.874808970094</v>
       </c>
       <c r="C5" t="n">
-        <v>2021.099408463506</v>
+        <v>1053.014483023798</v>
       </c>
       <c r="D5" t="n">
-        <v>1597.806787648507</v>
+        <v>930.7948763386657</v>
       </c>
       <c r="E5" t="n">
-        <v>1171.829847796364</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>746.7056659857641</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>116.829168004879</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>116.829168004879</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>667.4947029893171</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="X5" t="n">
-        <v>2217.231657670528</v>
+        <v>1092.979635225926</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.934791665823</v>
+        <v>1091.68276922122</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>51.94486801115937</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L6" t="n">
-        <v>602.6104029955975</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M6" t="n">
-        <v>602.6104029955975</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N6" t="n">
-        <v>838.3748437825398</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O6" t="n">
-        <v>838.3748437825398</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>451.3798346740465</v>
+        <v>645.7643351504313</v>
       </c>
       <c r="C7" t="n">
-        <v>451.3798346740465</v>
+        <v>473.7917720293473</v>
       </c>
       <c r="D7" t="n">
-        <v>288.0630618008172</v>
+        <v>310.474999156118</v>
       </c>
       <c r="E7" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F7" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4725,52 +4725,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1947.200787969719</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1667.016339470023</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V7" t="n">
-        <v>1385.304872078052</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W7" t="n">
-        <v>1110.452468250565</v>
+        <v>1062.273072172755</v>
       </c>
       <c r="X7" t="n">
-        <v>867.88857169637</v>
+        <v>1062.273072172755</v>
       </c>
       <c r="Y7" t="n">
-        <v>641.5458033861121</v>
+        <v>835.9303038624969</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>533.9701437626245</v>
+        <v>1287.678729207029</v>
       </c>
       <c r="C8" t="n">
-        <v>511.1098178163287</v>
+        <v>1264.818403260733</v>
       </c>
       <c r="D8" t="n">
-        <v>87.81719700132894</v>
+        <v>1245.566186486137</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,10 +4807,10 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
         <v>1145.829295018124</v>
@@ -4822,10 +4822,10 @@
         <v>1696.494830002562</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2152.580309506745</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4834,22 +4834,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>1542.1289725064</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W8" t="n">
-        <v>1542.1289725064</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X8" t="n">
-        <v>1359.155778099264</v>
+        <v>1708.823959503264</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.8185080541546</v>
+        <v>1303.486689458155</v>
       </c>
     </row>
     <row r="9">
@@ -4880,13 +4880,13 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L9" t="n">
         <v>756.3555336978366</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>946.7665737820055</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>774.7940106609215</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>611.4772377876922</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>482.385537240179</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>310.5237630147394</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="V10" t="n">
-        <v>1654.348842875753</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="W10" t="n">
-        <v>1379.496439048266</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="X10" t="n">
-        <v>1136.932542494071</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>1136.932542494071</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063313</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076614</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261614</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409471</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988715</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H11" t="n">
         <v>137.1995846623573</v>
@@ -5041,7 +5041,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
         <v>1180.414480198223</v>
@@ -5050,43 +5050,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="N11" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O11" t="n">
-        <v>3959.47027938737</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P11" t="n">
-        <v>4667.749558545297</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931859</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232206</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399953</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354844</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H12" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N12" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O12" t="n">
-        <v>1158.289251381874</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P12" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>516.5477476675582</v>
+        <v>440.5322462326803</v>
       </c>
       <c r="C13" t="n">
-        <v>516.5477476675582</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="D13" t="n">
-        <v>516.5477476675582</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E13" t="n">
-        <v>516.5477476675582</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F13" t="n">
-        <v>344.6859734421186</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G13" t="n">
-        <v>344.6859734421186</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>200.8897049502729</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
         <v>741.0109641302445</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G14" t="n">
         <v>435.0679631883225</v>
@@ -5278,52 +5278,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>1125.089101572745</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1125.089101572745</v>
+        <v>1581.174581076926</v>
       </c>
       <c r="M14" t="n">
-        <v>2129.375202991803</v>
+        <v>2585.460682495985</v>
       </c>
       <c r="N14" t="n">
-        <v>3105.626261478504</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O14" t="n">
-        <v>3950.770911629316</v>
+        <v>4406.856391133498</v>
       </c>
       <c r="P14" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="15">
@@ -5348,28 +5348,28 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H15" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>1782.102586447038</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O15" t="n">
         <v>1910.990343986338</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>684.0483191256287</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C16" t="n">
-        <v>512.0757560045447</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>512.0757560045447</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>345.8675501573982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T16" t="n">
-        <v>1898.15780502933</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U16" t="n">
-        <v>1617.973356529634</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V16" t="n">
-        <v>1617.973356529634</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W16" t="n">
-        <v>1343.120952702147</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X16" t="n">
-        <v>1100.557056147952</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.2142878376944</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063319</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076619</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261619</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409477</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.407025598877</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883257</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623605</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5524,16 +5524,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2720.098147267829</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3696.34920575453</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5554,13 +5554,13 @@
         <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232211</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399958</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354849</v>
       </c>
     </row>
     <row r="18">
@@ -5597,25 +5597,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N18" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O18" t="n">
-        <v>1529.586448057074</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>516.5477476675582</v>
+        <v>606.5662274551883</v>
       </c>
       <c r="C19" t="n">
-        <v>344.5751845464741</v>
+        <v>606.5662274551883</v>
       </c>
       <c r="D19" t="n">
-        <v>344.5751845464741</v>
+        <v>443.249454581959</v>
       </c>
       <c r="E19" t="n">
-        <v>178.3669786993277</v>
+        <v>277.0412487348125</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>105.1794745093729</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>105.1794745093729</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5706,19 +5706,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1265.638861031707</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>1023.074964477512</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675582</v>
+        <v>796.7321961672538</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988743</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>292.0244587153436</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
         <v>2988.069926596602</v>
@@ -5788,13 +5788,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1165.735894343786</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1165.735894343786</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>440.5322462326804</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5992,13 +5992,13 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
         <v>2988.069926596602</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6232,16 +6232,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P26" t="n">
         <v>4541.493855905342</v>
@@ -6302,25 +6302,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
         <v>1446.844867123559</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>431.8276921262043</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>431.8276921262043</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
         <v>102.3027134058285</v>
@@ -6399,37 +6399,37 @@
         <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.11639865629</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578191</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818953</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.677127506126</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025261</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251161</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751466</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359494</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>985.4544125320074</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>848.3364291485279</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>621.99366083827</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6469,22 +6469,22 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>609.4538236255814</v>
+        <v>612.3940204581201</v>
       </c>
       <c r="C31" t="n">
-        <v>437.4812605044974</v>
+        <v>440.421457337036</v>
       </c>
       <c r="D31" t="n">
-        <v>274.1644876312681</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G31" t="n">
         <v>102.3027134058285</v>
@@ -6630,43 +6630,43 @@
         <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100491</v>
       </c>
       <c r="N31" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976527</v>
       </c>
       <c r="O31" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.11639865629</v>
       </c>
       <c r="P31" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578191</v>
       </c>
       <c r="Q31" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818953</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818953</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818953</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044853</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1828.030525254097</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1546.319057862125</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1271.466654034638</v>
       </c>
       <c r="X31" t="n">
-        <v>835.7965919358394</v>
+        <v>1028.902757480444</v>
       </c>
       <c r="Y31" t="n">
-        <v>609.4538236255814</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
     <row r="32">
@@ -6703,22 +6703,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1394.531219842001</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M32" t="n">
-        <v>2398.817321261059</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N32" t="n">
-        <v>3375.06837974776</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O32" t="n">
-        <v>4220.213029898572</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4928.4923090565</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554889</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>154.4092158344049</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6879,31 +6879,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818953</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.677127506126</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025261</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251161</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751466</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359494</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>985.4544125320074</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778125</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675545</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I35" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J35" t="n">
         <v>464.9061722227241</v>
@@ -6943,46 +6943,46 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596604</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747416</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905343</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409527</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209202</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805614</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7004,40 +7004,40 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>249.7325784259149</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G36" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="N36" t="n">
-        <v>1446.844867123559</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>742.8905159778152</v>
+        <v>601.2341827829841</v>
       </c>
       <c r="C37" t="n">
-        <v>742.8905159778152</v>
+        <v>601.2341827829841</v>
       </c>
       <c r="D37" t="n">
-        <v>579.5737431045859</v>
+        <v>437.9174099097548</v>
       </c>
       <c r="E37" t="n">
-        <v>413.3655372574394</v>
+        <v>271.7092040626084</v>
       </c>
       <c r="F37" t="n">
-        <v>413.3655372574394</v>
+        <v>271.7092040626084</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>271.7092040626084</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>127.9129355707628</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J37" t="n">
         <v>159.7940416299866</v>
@@ -7101,46 +7101,46 @@
         <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302446</v>
       </c>
       <c r="M37" t="n">
         <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.68826997653</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656293</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578194</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818956</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.677127506129</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025264</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251164</v>
+        <v>1822.202732251169</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751468</v>
+        <v>1542.018283751474</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359497</v>
+        <v>1260.306816359503</v>
       </c>
       <c r="W37" t="n">
-        <v>985.4544125320101</v>
+        <v>1260.306816359503</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778152</v>
+        <v>1017.742919805308</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.8905159778152</v>
+        <v>791.4001514950497</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261618</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988743</v>
+        <v>839.4070255988754</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883229</v>
+        <v>435.067963188324</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623577</v>
+        <v>137.1995846623586</v>
       </c>
       <c r="I38" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J38" t="n">
         <v>464.9061722227241</v>
@@ -7186,40 +7186,40 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596604</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747416</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905343</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409527</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209202</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805614</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931863</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.60713123221</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399957</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="L39" t="n">
-        <v>4143.246847793825</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="M39" t="n">
-        <v>4143.246847793825</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="N39" t="n">
-        <v>4143.635082195253</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="O39" t="n">
-        <v>5033.116360206724</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="P39" t="n">
-        <v>5033.116360206724</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>5033.116360206724</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4017.903765402536</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C40" t="n">
-        <v>3845.931202281452</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D40" t="n">
-        <v>3682.614429408222</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E40" t="n">
-        <v>3516.406223561076</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F40" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G40" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302446</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>5115.135670291427</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>5115.135670291427</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>5115.135670291427</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>4833.424202899456</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>4558.571799071969</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>4316.007902517774</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>4089.665134207516</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="41">
@@ -7390,13 +7390,13 @@
         <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F41" t="n">
         <v>839.4070255988738</v>
@@ -7420,16 +7420,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
         <v>4997.579335409525</v>
@@ -7490,22 +7490,22 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>946.5481644506465</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P42" t="n">
         <v>1364.825557038856</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>601.2341827829796</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>429.2616196618956</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>265.9448467886663</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>265.9448467886663</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
         <v>102.3027134058285</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>1260.306816359498</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>1017.742919805303</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>791.4001514950452</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7642,34 +7642,34 @@
         <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L44" t="n">
-        <v>1394.531219842001</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M44" t="n">
-        <v>2398.817321261059</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N44" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
         <v>5115.135670291427</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>3578.14552899051</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>3578.14552899051</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L45" t="n">
-        <v>3578.14552899051</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M45" t="n">
-        <v>3578.14552899051</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N45" t="n">
-        <v>4667.46047546338</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O45" t="n">
-        <v>4667.46047546338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P45" t="n">
-        <v>4667.46047546338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>5033.116360206724</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3918.135197142812</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>3746.162634021728</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>3582.845861148498</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>3416.637655301352</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>3244.775881075912</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>5115.135670291427</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>4871.796322517327</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>4591.611874017632</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>4591.611874017632</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>4316.759470190144</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>4144.477965453069</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>3918.135197142812</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487767</v>
+        <v>519.5412919487765</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>501.6614210774812</v>
+        <v>39.73581606682082</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884133</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641986</v>
+        <v>521.3520529641984</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>398.0263629780076</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.2917778681966</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662953</v>
+        <v>506.8734716662951</v>
       </c>
       <c r="N3" t="n">
-        <v>505.119719367509</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>131.7781250670426</v>
+        <v>506.9485808761893</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>149.2582520094588</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8151,13 +8151,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>94.64032950871376</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>108.8261593358512</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
@@ -8239,7 +8239,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298237</v>
@@ -8306,16 +8306,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>259.4889279983319</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8455,13 +8455,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
@@ -8470,13 +8470,13 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>452.5855512828693</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>108.094208435838</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L9" t="n">
-        <v>467.1209648647325</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8698,7 +8698,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055937</v>
       </c>
       <c r="N11" t="n">
         <v>37.27962283444602</v>
@@ -8710,7 +8710,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>369.2860653765454</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>248.2838641991609</v>
       </c>
       <c r="P12" t="n">
-        <v>230.3933721714771</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,10 +8929,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>702.6160445827093</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>443.1202251383838</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
@@ -8947,7 +8947,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>618.848654609434</v>
@@ -9017,10 +9017,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>71.42110271777969</v>
       </c>
       <c r="O15" t="n">
-        <v>153.3615438023236</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>653.6520906270367</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9184,7 +9184,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9245,10 +9245,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
@@ -9257,16 +9257,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P18" t="n">
-        <v>407.0273017394389</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>221.0580860608543</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9488,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>693.1063741240905</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9503,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,16 +9640,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>574.2427960500296</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9728,19 +9728,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>969.8870401031046</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,19 +9880,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086332</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,13 +9965,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0343783945846</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
@@ -10117,7 +10117,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>229.9501690078907</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>229.9655591801901</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10363,13 +10363,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>716.4444307130257</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.9095497086638</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>749.1541615704315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,13 +10591,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406117</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>312.8133471445368</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>924.1790155406098</v>
+        <v>924.1790155406117</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10898,31 +10898,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.73518417458029</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -11068,19 +11068,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O41" t="n">
-        <v>238.1216346371742</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11138,16 +11138,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>445.5991972680949</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11156,7 +11156,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N44" t="n">
-        <v>751.2280472965118</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
@@ -11387,16 +11387,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>392.0964168176092</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>113.008962604416</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23427,16 +23427,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>1.169760948126836</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T16" t="n">
-        <v>75.19552205038323</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>94.83953384262102</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>139.5103123144182</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>113.0089626044161</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>104.3914540390083</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>68.15019490185026</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>91.97701519844301</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0981677402064</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -25326,13 +25326,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>97.7713927796694</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>73.41676263384196</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>117.2205539080147</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>71.98949189919254</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>150.495750241103</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>69.57956789894868</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>578157.7247451845</v>
+        <v>578157.7247451844</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>591458.689892059</v>
+        <v>591458.6898920591</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>591458.689892059</v>
+        <v>591458.6898920592</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>591458.689892059</v>
+        <v>591458.6898920591</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>480515.2011092093</v>
       </c>
       <c r="C2" t="n">
-        <v>480515.2011092093</v>
+        <v>480515.2011092094</v>
       </c>
       <c r="D2" t="n">
         <v>480515.2011092094</v>
       </c>
       <c r="E2" t="n">
-        <v>463675.0825883939</v>
+        <v>463675.0825883941</v>
       </c>
       <c r="F2" t="n">
-        <v>463675.0825883941</v>
+        <v>463675.082588394</v>
       </c>
       <c r="G2" t="n">
         <v>463675.082588394</v>
       </c>
       <c r="H2" t="n">
-        <v>463675.082588394</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="I2" t="n">
         <v>463675.0825883938</v>
       </c>
       <c r="J2" t="n">
-        <v>463675.0825883938</v>
+        <v>463675.0825883937</v>
       </c>
       <c r="K2" t="n">
-        <v>463675.0825883938</v>
+        <v>463675.0825883936</v>
       </c>
       <c r="L2" t="n">
         <v>463675.0825883938</v>
       </c>
       <c r="M2" t="n">
-        <v>463675.0825883938</v>
+        <v>463675.0825883941</v>
       </c>
       <c r="N2" t="n">
         <v>463675.0825883939</v>
       </c>
       <c r="O2" t="n">
+        <v>463675.0825883938</v>
+      </c>
+      <c r="P2" t="n">
         <v>463675.0825883939</v>
-      </c>
-      <c r="P2" t="n">
-        <v>463675.0825883938</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.696069591</v>
+        <v>162124.6960695909</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361245</v>
+        <v>23406.83367361252</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.3056821512068e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>126577.2685802886</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701997</v>
+        <v>18646.60035702</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>195487.3209125819</v>
       </c>
       <c r="C4" t="n">
-        <v>182621.0655158991</v>
+        <v>182621.065515899</v>
       </c>
       <c r="D4" t="n">
-        <v>182621.0655158991</v>
+        <v>182621.065515899</v>
       </c>
       <c r="E4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.6272498638</v>
       </c>
       <c r="F4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986378</v>
       </c>
       <c r="G4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986383</v>
       </c>
       <c r="H4" t="n">
         <v>72380.62724986371</v>
@@ -26441,25 +26441,25 @@
         <v>72380.62724986373</v>
       </c>
       <c r="J4" t="n">
+        <v>72380.62724986371</v>
+      </c>
+      <c r="K4" t="n">
         <v>72380.62724986367</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>72380.62724986373</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>72380.62724986368</v>
+      </c>
+      <c r="N4" t="n">
+        <v>72380.6272498637</v>
+      </c>
+      <c r="O4" t="n">
         <v>72380.62724986367</v>
       </c>
-      <c r="M4" t="n">
-        <v>72380.62724986367</v>
-      </c>
-      <c r="N4" t="n">
-        <v>72380.62724986368</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>72380.62724986373</v>
-      </c>
-      <c r="P4" t="n">
-        <v>72380.6272498637</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216121</v>
+        <v>63041.22282216119</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26502,10 +26502,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842971</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842971</v>
       </c>
       <c r="O5" t="n">
         <v>77750.06218842969</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59861.96130487524</v>
+        <v>59861.96130487523</v>
       </c>
       <c r="C6" t="n">
-        <v>207041.0508822697</v>
+        <v>207041.0508822698</v>
       </c>
       <c r="D6" t="n">
         <v>230447.8845558822</v>
       </c>
       <c r="E6" t="n">
-        <v>97805.03659345995</v>
+        <v>97754.00593127577</v>
       </c>
       <c r="F6" t="n">
-        <v>313544.3931501007</v>
+        <v>313493.3624879163</v>
       </c>
       <c r="G6" t="n">
-        <v>313544.3931501006</v>
+        <v>313493.3624879161</v>
       </c>
       <c r="H6" t="n">
-        <v>313544.3931501006</v>
+        <v>313493.3624879161</v>
       </c>
       <c r="I6" t="n">
-        <v>313544.3931501004</v>
+        <v>313493.3624879161</v>
       </c>
       <c r="J6" t="n">
-        <v>186967.1245698118</v>
+        <v>186916.0939076275</v>
       </c>
       <c r="K6" t="n">
-        <v>294897.7927930804</v>
+        <v>294846.762130896</v>
       </c>
       <c r="L6" t="n">
-        <v>313544.3931501005</v>
+        <v>313493.362487916</v>
       </c>
       <c r="M6" t="n">
-        <v>133480.5216949328</v>
+        <v>133429.4910327487</v>
       </c>
       <c r="N6" t="n">
-        <v>313544.3931501005</v>
+        <v>313493.3624879162</v>
       </c>
       <c r="O6" t="n">
-        <v>313544.3931501005</v>
+        <v>313493.3624879161</v>
       </c>
       <c r="P6" t="n">
-        <v>313544.3931501004</v>
+        <v>313493.3624879161</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.607349967285783e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.607349967285783e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.607349967285783e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.607349967285783e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.607349967285783e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539673</v>
+        <v>483.7766911539671</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26798,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.607349967285783e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539673</v>
+        <v>483.7766911539671</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162682</v>
+        <v>72.45112196162705</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.763785508899792e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539673</v>
+        <v>483.7766911539671</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162682</v>
+        <v>72.45112196162705</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.607349967285783e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539673</v>
+        <v>483.7766911539671</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162682</v>
+        <v>72.45112196162705</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.763785508899792e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>390.3743495457194</v>
-      </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>183.1956110309308</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>147.7704978721329</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>173.5654753938929</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245.3945739651546</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>298.0622839885683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -27791,7 +27791,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>134.4062914546851</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.2769165173509</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>88.37640295400337</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>226.4593363808663</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>36.74534024663697</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>59.37454630891094</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.326849676921546e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.848729880293831e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.607349967285783e-14</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.607349967285783e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28614,10 +28614,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.607349967285783e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.607349967285783e-14</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.062555678230115e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29702,7 +29702,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>-4.033906286909852e-12</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-5.964839043255315e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30197,7 +30197,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>4.26144330551073e-12</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-6.146602125827387e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539673</v>
+        <v>483.7766911539671</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>464.2301581780494</v>
+        <v>2.304553167389006</v>
       </c>
       <c r="N2" t="n">
-        <v>483.7766911539673</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539673</v>
+        <v>483.7766911539671</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>375.6271291446743</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.7766911539671</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539673</v>
+        <v>483.7766911539671</v>
       </c>
       <c r="N3" t="n">
-        <v>483.7766911539673</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>108.6062353448204</v>
+        <v>483.7766911539671</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>128.2935975567468</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34871,13 +34871,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>72.14114201028931</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>73.06155854104185</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -34959,7 +34959,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155941</v>
@@ -35026,16 +35026,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>238.1458997847902</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35175,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35190,13 +35190,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>73.06155854104156</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L9" t="n">
-        <v>444.605878150503</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>886.899392706162</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35430,7 +35430,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>333.1613907719473</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="P12" t="n">
-        <v>208.6225309666485</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,10 +35649,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>666.8514437878999</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>404.8081827057609</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
@@ -35667,7 +35667,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>596.4494207761006</v>
@@ -35737,10 +35737,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>50.07807450423802</v>
       </c>
       <c r="O15" t="n">
-        <v>130.1896540801013</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>616.220827727605</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35904,7 +35904,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35965,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P18" t="n">
-        <v>385.2564605346102</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>191.6381265752677</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>669.9344844018683</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,16 +36360,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>551.8435622166962</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,19 +36448,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>948.544011889563</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,19 +36600,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,13 +36685,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
@@ -36767,7 +36767,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O28" t="n">
-        <v>359.0183117977367</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P28" t="n">
         <v>293.5345574968697</v>
@@ -36837,7 +36837,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>191.6381265752678</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>208.6225309666485</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36998,7 +36998,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M31" t="n">
-        <v>395.137166636617</v>
+        <v>395.137166636613</v>
       </c>
       <c r="N31" t="n">
         <v>381.3045564404402</v>
@@ -37071,10 +37071,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37083,13 +37083,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>679.0534713570016</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>69.78487510406572</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37247,7 +37247,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q34" t="n">
-        <v>128.2829598391497</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,13 +37311,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061656</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>291.4703189309951</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37475,7 +37475,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N37" t="n">
-        <v>381.3045564404393</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O37" t="n">
         <v>359.0183117977405</v>
@@ -37554,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>886.8993927061638</v>
+        <v>886.8993927061656</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0.3921559610386215</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>82.84778796434657</v>
@@ -37788,19 +37788,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O41" t="n">
-        <v>200.7306752811501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37858,16 +37858,16 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>422.5024167557669</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N44" t="n">
-        <v>713.9484244620658</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38040,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
@@ -38107,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>369.3493785286307</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>
